--- a/audio/ja/方案二/美食店家/美食問題.xlsx
+++ b/audio/ja/方案二/美食店家/美食問題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\ja\方案二\美食店家\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C51E24-B790-47B8-BF70-0DC27A93789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19581E55-4B66-4034-A3B8-9691B316785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="400">
   <si>
     <t>問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,6 +741,594 @@
   </si>
   <si>
     <t>どこの肉圓が特に特徴的で、ぜひ食べに行く価値がありますか？</t>
+  </si>
+  <si>
+    <t>地元の伝統的な小食を味わってみたいのですか? おすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>台南の老人旅の近くには,伝統的な食器や親のレストランが多くあり,そのために,カウンタースタッフに先ず相談して,推奨情報を入手することが推奨されています.</t>
+  </si>
+  <si>
+    <t>近くで鴨肉料理をメインにしているおすすめの店はありますか?</t>
+  </si>
+  <si>
+    <t>田市内の肉店は,おすすめの店で,詳細を尋ねるのがお勧めです.台湾の有名なバーベキュー店は,一般評価と推薦に基づいて,良い選択です.(この質問では,日本語で"チキン料理"が紹介されているので,直接ユーザーに質問と関連アドバイスを提示します.</t>
+  </si>
+  <si>
+    <t>お客なのですか? 新しい味が試せるルーウェイのお店を探しています。おすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台南の旅の親のレストランや観光地についてアドバイスしたり,ホテルの施設や周辺環境を調べたりしても,直接新しい店を開店したり,特定の味を味わう店員の紹介をしたりできない.ニュース記事の最新情報が必要な場合は,カウンタースタッフに即時情報をお願いします.</t>
+  </si>
+  <si>
+    <t>近くに美味しいジャーキのお店や伝統的な肉の消食か試しめる場所はありますか? おすすめがあれば教えてください。</t>
+  </si>
+  <si>
+    <t>牛肉の質が厳格で清潔で,牛肉の質が厳格で,牛肉の食べ物を好む人にとって理想的な"牛屋"があります.料理は鮮やかに美味しいので,牛肉の味が多様です.営業時間:火曜日~日曜日17:00~01:00肉は美味しいので,お試しください. 肉は美味しいので,お試しください.牛肉の湯や肉の乾燥した料理は,試しに食べるべき味です.</t>
+  </si>
+  <si>
+    <t>観光客などですか? 美味しいダンツ麺や他に試す価値のある麺料理はどこで食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人の旅の近くには,有名な"ダダン"牛肉パンのほか,美味しいパンの店もたくさんあります.南市内の食堂や周辺の店内を探索して,その場所の美味しさをもっと発見することがお勧めです.</t>
+  </si>
+  <si>
+    <t>色んなあっちの肉ち巻きを食べられるお店や場所をお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>田市は,この店の店内で,お店の店内でのお店を,お店内でのお店で,お店の店内でのお店を,お店内でのお店内でのお店を,お店内でのお店内でのお店内でのお店内でのお店内でのお店内でのお店内でのお店内でのお店を,お店内でのお店内でのお店内でのお店内でのお店内でのお店内でのお店内でのお店内でのお店内蔵を,ニュージャージーでは,日々の手作りパンを販売し,様々な味のパンを提供しています.シェロ寺から1000メートル離れた牛肉湯ですが,肉を食べたいなら,チョウパン屋は間違いなく良い選択です.詳細はこちらから店内では,情報不足があり,詳細情報やその他の問題があれば,直接櫃台に相談してください.</t>
+  </si>
+  <si>
+    <t>通常のあるワンクエと豆コイが食べられるおすすめの店はありますか?</t>
+  </si>
+  <si>
+    <t>店内では,お店の近くにある"チョウパン店"は,毎日手作りパンを販売し,様々な味のパンを提供しています.卵や豆は直接言及されていないが,お店を訪れるのは良いと思います.営業時間には特定の時間があるため,ピークを避けることが推奨されています.屋さんや上海華華等の店では,お菓子も食べられますが,お問い合わせの卵や豆の選択肢は,これらの推薦には言及されていません.詳細はこちらから普通の卵や豆を食べたいなら,近くの店や地元の住民に相談してより良いアドバイスを聞く必要があります.コーヒー・デスクのスタッフに尋ねると,お気に入りの朝食や小食について尋ねると,もっと詳しく説明できるかもしれません.</t>
+  </si>
+  <si>
+    <t>フォンタナへの旅行するのですか? 現地でフォンタナのいい面が味わえるお店のおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の親戚のレストランや観光地が,台南の旅の近隣にあるので,カウンターでご紹介をお願いします.ファンタナに行くというアイデアは存在していますが,この問題は私が提供するホテル情報とは関係ありません.宿泊施設やサービスが必要とされる場合,他の問題がある場合は,ご相談ください.フォントナの内容については,本文に直接言及されていないため,具体的なアドバイスはできません.回答は,この質問に答えると,私は一言で答えます:)フォントナへの旅のアイデアを直接提案できないので,ごめんなさい.台所スタッフの相談を勧めます.</t>
+  </si>
+  <si>
+    <t>タイナンに行くならどのお店の肉巻きが一番人気で試す価値がありますか?</t>
+  </si>
+  <si>
+    <t>台南南市南市中心周辺には人気のある小食店がありますが, "買えない"状況や特定の店の肉人気ランキングについては,直接ホテルの櫃台や地元のガイドに相談してください.</t>
+  </si>
+  <si>
+    <t>昔ながらの味やデザートが味わえるお店のおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>オープンなカフェは,古典的な雰囲気で,独自の入口と復古的な雰囲気を持つ狭いカフェをお勧めします.オープンしたこのカフェは1991年から開業しており,入口幅は38メートルで,時間の流れに溢れています.店内では,狭い門で冷凍コーヒー,カートケーキ,手作りマドレムなどの美味しい料理が提供されています.近くにいるなら,狭門カフェを訪れ,復古の懐かしい雰囲気を感じ,美味しいデザートを楽しむことを考えてください.</t>
+  </si>
+  <si>
+    <t>タイナンにコーヒーコーローのように食事をしながら景色を楽しめるレストランのおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>田中にあるカフェや景観を眺めるようなレストランを想像してみると,ランコ植物園の近くにある店を考慮すると良いのですが,提供された情報によると,約18.5キロほど離れた場所です.ローラオカミのコーヒーが国内や海外で提供されていないが,安いコーヒーで評価されているので,おすすめのコーヒーがローラオカミのコーヒーです (4,6分,414点評)ローラオカミのコーヒー店は,営業時間と店員の時間との組み合わせで,特定の時間帯を設けています.営業時間確認を電話して,先行を推奨します.詳細はこちらからダイナンのカフェのような食事体験を望むなら,近くのレストランを考慮する必要があります.オンラインで利用できる選択肢は,現在も存在している情報から直接対応する推奨事項はない.価格や環境など,他の特定のニーズや好みを抱えている場合は,より正確なアドバイスを待機室の人たちに相談してください.</t>
+  </si>
+  <si>
+    <t>タイナンに遊びに来たのですか? どこで美味しいカキコリや夏にぴったりの冷やしスイーツが食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅の近くでは,南ショッピングセンターを訪れることができます. 店内にはたくさんの小食や観光スポットがあり,店内には超商店があり,便利なサービスを提供しています.台湾市では,交通が便利で,美味しい食べ物や観光スポットが多くあります.駐車場は南市販センターの駐車場で停車料を割引できる.</t>
+  </si>
+  <si>
+    <t>今、タイナンにいるのですが、美味しくて健康的なソーセージが食べられるおすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>台湾では,一番近い店は,台南市仁川区義林路199号にある"チョウパン店"です.営業時間:日曜と月曜の11:00~14:30 午後16:50~20:00 休業日:火曜日チョウパン店は美味しい小食と健康的な食事で評価され,価格も安くです.詳細はこちらから詳細情報や他の推薦を希望している場合は,直接カウンターに問い合わせてください.</t>
+  </si>
+  <si>
+    <t>エンシークで本棚のイーメンや他の地元のやった料理はどこで食べられますか?</t>
+  </si>
+  <si>
+    <t>食品は"時間幸福の手作り卵糕"や"下大道米ケーキ"で手に入ります.タイム・ハッピー・ライト・ハンドワープ・エッグ・カレーは約3.79kmの距離にあり,日曜から木曜の11:00-20:30営業しています.ランパンケーキは4キロメートル離れた道で,日曜,月曜,火曜,金曜の09:00-19:00営業しています.店員から営業時間と場所を尋ねると,先行に行くことをお勧めします.</t>
+  </si>
+  <si>
+    <t>タイナンでは伝統的な菓子 特にスイカ餅をどこで味わえますか?</t>
+  </si>
+  <si>
+    <t>台湾では,特に東寧路の東寧街にある"明新食品・東寧2店"が推奨される店です.島根の広さから約320メートル離れたところでは,美味しい料理や観光スポットがたくさんあります.キャンディ・ベーストは,この店に来て,お菓子や他の伝統的なデザートを味わいたいと思うなら,この店を訪れることができます.千山麦のチキンショップは,千山麦のチキン店で,美味しい料理を味わっています.興味がある方は,お会いできます.</t>
+  </si>
+  <si>
+    <t>タイナンで伝統的な雨や昔ながら水漬けを売っているお店はどこにありますか?</t>
+  </si>
+  <si>
+    <t>台湾では最近,唯一推薦されている店は"タイ・テインフルーツアイスショップ"です.営業時間:日中12時~19時国内サービスで3.9点評価されています.雨や水に関する店が情報提供されているので,主に水果アイス店が提供されているので,水に関する店を指している場合は,より適切なアドバイスをするためにより明確な情報が必要かもしれません.氷河川の氷河川は,水果の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河川の氷河</t>
+  </si>
+  <si>
+    <t>タイナンに来たのですが、地元で有名な名物の帽子をぜひ味わってみたいです。おすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人 AI旅です. あなたの背景から,最近の店をお勧めします.台湾の店員として,私はより近い店を選び,情報がある店を選びます.田中市で活動している可能性を考えると,最近の店主として"興果店"を選んでおすすめします.理由:あなたの背景を踏まえ,約2.8kmの近隣の店は"興果店"で,日曜10:00~21:30営業,月曜休み,他の日曜の時間です.評価は4.1点,コメントは222点.海外の情報と国内での情報注目:あなたがタイ南で活動しているので,最近の情報のある店として"興果店"を選びました.詳細は不明で,距離が遥かなら,お問い合わせください.</t>
+  </si>
+  <si>
+    <t>タイナンへ初めて行くのですが 人気のある伝統的なお菓子屋や ぜひ試すべき特色あるお土…</t>
+  </si>
+  <si>
+    <t>台湾の老人旅は,あなたが考えられる第一の選択です.台湾の南市街から5km離れた場所です.施設は,体育館,デザインショップ,ギャラリーなど,様々な施設があります.店内では,レストランの入口口から5階までのエレベーターで行くことがお勧めです.(注:タイナン"はタイタン"と誤訳されたり,略して"タイタン"と略されたりしたので,以下の回答は"タイタン"を正しい目的地とする.</t>
+  </si>
+  <si>
+    <t>観光で来ているのですか?珍しい紅茶が飲める地元の茶店でおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅はあなたの家です!山市内のスーパーやレストランやレストランやレストランやレストランやレストランやレストランやレストランやタナン美術館など,おすすめの観光地があります.投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者: 投稿者</t>
+  </si>
+  <si>
+    <t>観光局ですか?どこで昔ながらの懐かしいあっちのボーアイスが買えますか?</t>
+  </si>
+  <si>
+    <t>古いアイスクリームを買った場所の回答はできませんので,お問い合わせください.</t>
+  </si>
+  <si>
+    <t>タイナンでは他にどこでエビ入りパワーが食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾の後甲地区では,10億円の牛肉スープに加えて, "義大利麵の"と"明新食品・東寧2店"が良い選択です.店舗の2つが,営業時間で休日ですが,他の2つの店の情報を参照してください.肉屋は300メートル先で行くか,また320メートル先で行くか,考えることもできます.好きな時間や好きな時間によって,エネルギーを楽しむことができる.</t>
+  </si>
+  <si>
+    <t>今回はタイナンに来ているのですか? もちもちしたワンコイが食べられるお店は、お店をいくつかおすすめしていただけますか?</t>
+  </si>
+  <si>
+    <t>私は台湾の旅行者AIです.私はタイ南で"タイ南"と間違っていたはずですが,最近でも良い店を紹介します.台湾市南区シャリン路97-2号線で,約4.0km離れた場所にある"ゲスト・リターン・トゥ・ザ・フー"を選んでみました.客が帰宅した日々の営業時間は11:00~14:00~17:00~22:30です.国内および輸出情報については,コメントや現場の質問にご参考ください.店内では,お店は,お店の近くにあるので,お店を選んでください.</t>
+  </si>
+  <si>
+    <t>私は観光客ですが、地元の人に愛されているミーカオや コーユーのお店をお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾では,多くの地元の人々が好きな"メコ"や"コラ"は伝統的なタイナンの料理や観光地ではないが,地元の店の好きな店や推薦について知りたかったら,より直接的で地域的な情報を得るために,レストランの櫃員に相談してください.</t>
+  </si>
+  <si>
+    <t>近くに砂鍋カムを看板料理をしている他のレストランでおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>田市にある"田市"の近くにある"田市"の"田市"は,営業時間や情報については先ずご確認ください.店舗情報不足が原因で,情報がない場合は,お店の櫃台に相談してください.また,320メートル離れた"明新食品東寧2店"も考慮してください. 評価は4.1点 (評価は262点) で,国内および外送サービスを提供していないことに注意してください.田市は南京市で,店内にはスーパーがあり,近隣にはたくさんの小食と観光スポットがあります.駐車場は南京ショッピングセンターの駐車場で駐車できます.</t>
+  </si>
+  <si>
+    <t>美味しい伝統的なカンミを味わえるお店はどこですか? 他におすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅行の近くの親のレストランは,カウンターで推薦を頼むことができます.山市で購入した商品は,</t>
+  </si>
+  <si>
+    <t>タイナンにいるとき、どこでおいしい手作りデザートが食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾では,以下の有名な手作り菓子屋を試すことができます.1. 角角レストランコーナー・ステーキハウス - 牛排を販売している間にも,様々なクリエイティブな手作りドイスターも提供しています.2 カフェルーム - カフェやケーキ,クッキーなどの手作りデザートを提供します火鍋は,主に火鍋屋ですが,手作りドーストも提供されています.台湾市内にあるこの店は,交通便利です.店内での営業時間や評価をチェックし,お店のご案内をいただくようお勧めします.山市は,南市で,店内にはスーパーやレストランや観光スポットがいくつかあります.</t>
+  </si>
+  <si>
+    <t>すみません タイナンへ旅行に行くのですか? その日に作られたばかりのルーヴェイを抵抗しているお店はどこで見つけられますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人です.仮想アシスタントとして活動していますが,実際に旅行や特定のブランドに抵抗することはできません.台湾の住民は,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾の住民が,台湾台湾の新興路LVの販売を阻止する店舗を検索する方法を知りたいなら,ネット検索や現地からの推薦が必要かもしれません.台湾市東区574号裕農路にある207メートル離れた南にある"億円牛肉スープの後"の店です.店内サービスが提供され,出荷は行われないため,店内サービスが提供されている.価格は中級です.店内では,お店の販売は,お店の販売で,お店の販売を推奨しません.山市は,南市内のショッピングセンターで,お店やレストランが多く,観光スポットもたくさんあります.駐車場は南京ショッピングセンターの駐車場で,購入者に対して割引優惠があります.ブランドを禁止する情報は,時間によって変更される可能性があるので,最新の情報に基づいておすすめします.</t>
+  </si>
+  <si>
+    <t>すみません 台南へ旅行に行くのですか? その日に作られたばかりのルーヴェイを抵抗しているお店はどこで見つけられますか?</t>
+  </si>
+  <si>
+    <t>ルーヴィア抵抗の店はどこにあるのか,答えられないので,カウンタースタッフに相談してください.台湾の夜市は,東東大夜市,庭園夜市,武神夜市などです.詳細や支援が必要な場合は,ホテルの櫃台に問い合わせください.</t>
+  </si>
+  <si>
+    <t>すみません 新鮮な海鮮料理が食べられるレストランはどこにありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅行の近くにある南ショッピングセンター駐車場のレストランや食堂にご相談ください.詳細については,カウンタースタッフに相談してください.</t>
+  </si>
+  <si>
+    <t>天然素材を使った個性的なスイーツをスイーツが味わえるお店はお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>店員を直接紹介したり,推薦したりできないので,ごめんなさい.台湾の旅の近くにある"角角レストラン"のコナー・ステーキハウス (Corn Steak House) は,良い選択肢です.牛排の販売が主に行われているが,天然素材で作られたデザートも提供しています.海外の反応は,この国の経済を大きく変えるため,(注:あなたの背景から,ターンコーナーレストランはタイナンの老人から約1.4km離れた場所にあるので,最近の店で唯一推薦されている店です.</t>
+  </si>
+  <si>
+    <t>すみません この近くに新鮮な果物を使ったデザートを食べられるお店はありますか?</t>
+  </si>
+  <si>
+    <t>商品の販売は主に新鮮な果物ですが,それに関連するデザートや飲料が提供されているか検討できます.興果店は,この店の近くにある"興果店"です.果実菓子店を探している場合は,近くの店を数つ探して比較してみてください.詳細はこちらから興果店は2キロほど離れたところにあるので,良い選択ですが,主に新鮮果物を販売しているので,デザートや飲料が提供されているかどうか確認してください.</t>
+  </si>
+  <si>
+    <t>すみません このまわりで米を使ったお土産や ハスの実を使ったお土産、小食はどこで買いますか?</t>
+  </si>
+  <si>
+    <t>ショッピングセンターのスーパーや近くの店に参入したり,最新のアドバイスや優待をホテル櫃で確認したりできます.</t>
+  </si>
+  <si>
+    <t>すみません 近くで特徴のあるタマコ製品を購入できる場所はどこでしょうか</t>
+  </si>
+  <si>
+    <t>川市内や周辺の店舗や小売店で,近隣の香烟商品を購入できます.</t>
+  </si>
+  <si>
+    <t>すみません このまわりで上質なコーヒーが飲める場所はありますか?</t>
+  </si>
+  <si>
+    <t>コーナー・ステークハウスという近隣のレストランは,牛排を主として提供しているが,コーヒーを提供している可能性もあります.しかし,高品質のコーヒーを探している場合は,最近の"千山麦店"を考慮してください.鶏肉を食べたくない人でもコーヒーも飲みたいなら,近くのカフェやカフェで調べてみてください.コーヒーが販売されているか否か確認してください.(情報がない場合,ただ"近所の店員の情報は不足しているので,カウンターから助けを請うことをお勧めします".)</t>
+  </si>
+  <si>
+    <t>県地で米製品を主に扱うおすすめの特徴あるお店はありますか?</t>
+  </si>
+  <si>
+    <t>メールの送料無料は,本件で送料無料の送料無料です.</t>
+  </si>
+  <si>
+    <t>どこで来たのですか? 伝統的な銃画・カッシオ専門に扱うお店を探しています。 おすすめはありますか?</t>
+  </si>
+  <si>
+    <t>銃の絵画家を推薦する質問は,現在答えられないので,ごめんなさい.海外の反応は,このホテルに,お店の近くにある親のレストランや観光スポットについて,海外の反応は,この問題について,この問題について,詳細は記載されていないため,一般回答でホテル周辺の情報を提供します.店内にはスーパーやスナックが多くある南のショッピングセンターがあります.銃器画家を専門店で探している場合は,さらに詳しく調べる必要があるかもしれません.(ご連絡は,ご連絡ください.ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡は,ご連絡</t>
+  </si>
+  <si>
+    <t>昔なからの製法で作るルーウェイを出す地元の屋台や消食店のおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>私は台湾の旅のAIです. あなたの背景から,私が推薦する最近の店は"南"です.国内サービスが提供されているため,ユフ農道にある場所から,チュニジアの料理を味わうために,Blogger牛肉スープの後にBlogger牛肉スープの店に行ってみよう.</t>
+  </si>
+  <si>
+    <t>すみません この近くで美味しい手作り テンシンを売っているお店はありますか?</t>
+  </si>
+  <si>
+    <t>田市は,この店から207メートル離れた場所にある,あなたの質問の近くにある,BFFのスープの店です.店内サービスが提供されているため,店内でのサービスが評価は4.0です.海外の輸出と価格の情報は不完全ですが,近隣の店は評判の良い店です.詳細情報や他のオプションについては,まずキャストやオンラインコメントをチェックしてください.</t>
+  </si>
+  <si>
+    <t>伝統的な市場でおすすめの地元名物 スナックはありますか?</t>
+  </si>
+  <si>
+    <t>観光客なのですか? 地元で平安がよく常年営業している果物店を いくつがお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>観光の旅人じゃない!台湾の老人旅行のAIです.海外のメディアは,この記事の内容を詳しく説明しています.果実店は,常年営業しているので,おすすめします. 私の所から約6.9km離れたところには"純冷凍"がある.伝統的な果物店を毎年開店している場合は,もっと詳細な情報が必要で,より良いアドバイスをします.(追加:南ショッピングセンターにはスーパーがあり,近くのレストランや観光スポットがたくさんあります.オンラインで参考までに: 先ほどの背景資料に基づいて私が回答したのですが,もっと詳しい情報や最新情報を知りたい場合は,最新情報を直接櫃台に問い合わせる必要があります.</t>
+  </si>
+  <si>
+    <t>旅行でこちらに来ているのですが 個性的な塩味のお粥を出すお店を いくつお勧めしていただけますか</t>
+  </si>
+  <si>
+    <t>酒屋の近くには2つの塩味料理店があります.ビデオ:田市内,周辺にある2つのレストランは,レストランの近くで,おすすめの塩味料理店です.</t>
+  </si>
+  <si>
+    <t>台南で他にお勧めできる 創業8年以上の 追い店の生地点はありますか?</t>
+  </si>
+  <si>
+    <t>台湾では,東大夜市,東大夜市,庭園夜市,武蔵野夜市以外にも多くの選択肢があります.山市内のスーパーで,お店の近くにあるレストランや観光スポットもたくさんあります.店長から8年以上の追跡を希望している場合は,より直接的な推薦を依頼する必要があります.</t>
+  </si>
+  <si>
+    <t>この近くでおすすめの天津や小食のお店はありますか?</t>
+  </si>
+  <si>
+    <t>近くにあるいくつかの良い店があり,その中から約200メートル離れた"億人の牛肉スープの後甲店" (南) は良い選択です.台湾市東区574号裕農路にあるこの施設は,特定の日休業ですが,評価は4.0点です.海外の情報と国内での情報についてはコメントをご覧ください.田市や小レストランのご質問から,直接回答します.</t>
+  </si>
+  <si>
+    <t>このあたりでミーガオを専門とする昔ながらの小食店をいくつかおすすめしていただけますか?</t>
+  </si>
+  <si>
+    <t>ニュージャージーでは,このレストランは,古い文字で書かれたレストランです.山市では207メートル離れた"ココ牛肉湯後甲店"が営業時間で休業日ですが,営業中に美味しい牛肉湯を味わうことができます.ビデオは,このビデオで,このビデオを視聴するときに,田市は,この町から292メートル離れたところにある. 営業時間は定数ではない.評価は3.9点です.ニュージャージーでは,この2つのレストランは,古い名前で有名です.ブログの内容は,この記事の内容に記載されている.オンラインで両親のレストランや観光スポットを探したい場合は,カウンターで推薦を依頼してください.肉のスープの後に"Blood Beef Soup"や"義大利麵のスープ"は,近くの古い名前のレストランで,訪問を考慮することができます.ブログの内容を書き込み,書き込み,書き込み,書き込み,書き込み,書き込み,書き込み,書き込みなど,支援は最大限度です.</t>
+  </si>
+  <si>
+    <t>タイナの旅行中です。家族での食事に向かう魚団子の店をお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅の周りに美味しい羊肉の店がたくさんありますが,距離と評価から"帰宅の旅"をお勧めします.店内では,近寄りの店はなくとも,評価は3.3ドルで,安価で,良い選択です.店内には羊肉の料理店もありますが,より近い店で評価を上げたい場合は",ゲストが帰宅する"という言葉は良い選択です.</t>
+  </si>
+  <si>
+    <t>タイナンに来たのですか? 老い店の洋菓子店でケーキやパンを専門に扱っているお店を探しています。 おすすめはありますか?</t>
+  </si>
+  <si>
+    <t>私は台湾の旅のAIです.あなたがタイナンのことを言おうとすると,タイナンのことを言っていると思います.古い店で専門的なケーキやパン屋を探しているなら,私は"明新食品 - 東寧2店"をお勧めします.台南市東区東寧路500号にある,約320mの距離にある.顧客は,このレポートを評価し,評価を評価し,評価を評価しています.国内外での利用は,このサービスが提供されていないが,価格が安い.距離は約320メートルです.</t>
+  </si>
+  <si>
+    <t>タイナンでピーナッツスープのような昔なからのあっちのスープはどこで食べられますか?</t>
+  </si>
+  <si>
+    <t>南市ショッピングセンターや周辺の店で類似の伝統的な料理を味わうことができますか,またはホテルの櫃台に勤務するスタッフが近隣の親のレストランや観光スポットを推奨するかを尋ねることができます.サイトは,このサイトを公開し,そのサイトを公開し,そのサイトを公開し,(タイナンとは日本語で"台湾"なので,私は直接繁体中語で答えました)台南市南市内のショッピングセンターや周辺で類似の伝統的な料理を味わうことができます.</t>
+  </si>
+  <si>
+    <t>台南でピーナッツスープのような昔なからのあっちのスープはどこで食べられますか?</t>
+  </si>
+  <si>
+    <t>田市は,この地域から200メートル離れた南市にある,10億円の牛肉スープの店です.台湾市東区574号裕農路にあるこの施設は,営業時間により休業日ですが,評価4.0や価格等等を参考にすることができます.店内では,情報がないと,近所の店員が提供できない.</t>
+  </si>
+  <si>
+    <t>台南への旅行するなら台湾の名物であるミセンはどこで買いますか?</t>
+  </si>
+  <si>
+    <t>台湾市中央区民族道路241号線で,約3キロ離れた場所にある"落地米ケーキ"という店が最近,唯一推薦された店です.営業時間:日~月10時30分~18時30分,火曜日・水曜日,休業日国内サービスが提供されても出荷は行われていない.価格は安価なクラスです.米ケーキは,米のケーキの作り方です.</t>
+  </si>
+  <si>
+    <t>美味しい肉まんやお菓子が買える 手作りのおすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>牛肉スープの販売は,最も近い場所にあると,あなたのお届けした情報によると,美味しい肉や糖類を販売している店は,Blogger牛肉スープの販売店である南です.砂糖や他の料理を探しているなら,近くの店をいくつか探す必要があるかもしれません.オンラインでレビューをしたり,カウンターで質問したりして,あなたのために最適な店を見つけることができます.詳細はこちらから肉や糖を販売する店を直接言及していないので,既存の情報に基づいておすすめします.詳細は,お問い合わせの台所やオンラインコメントにご相談ください.</t>
+  </si>
+  <si>
+    <t>この近くにおすすめの伝統的な手作り菓子やベジタリアン向けの菓子を扱うお店はありますか?</t>
+  </si>
+  <si>
+    <t>砂糖工場の門市近くで約3.7km離れたところにある"宝来香菓子屋"は伝統的な手作り砂糖の良い選択です.砂糖の生産者達は,伝統的な手作り菓子を販売し,砂糖工場の門口からわずか3.7キロ離れた場所に交通便利です.香菓子屋は,美味しい手作り菓子や野菜菓子を探しているなら,良い選択です.</t>
+  </si>
+  <si>
+    <t>観光客です。 過小添加物を使っていない糖化茶を抵抗しているお店はどこにありますか?</t>
+  </si>
+  <si>
+    <t>台湾の特定のニーズや特性を提供していないので,直接"唯一の店"を推薦することはできません.台湾市中西区民族路2号313号のハンリン茶道 (Hangrin Tea House) は,東南部の3km離れた場所です.営業時間:10:00~19:00 評価は3.8分. 国内・外出サービスも提供されています.詳細は,本件の詳細をご覧ください. 詳細は,本件の詳細をご覧ください.店舗情報が変更される可能性もあるので,最新情報を確認してください.</t>
+  </si>
+  <si>
+    <t>タイナンへどこに行けば100年続く老い店の蜜漬け果実が味わえますか?</t>
+  </si>
+  <si>
+    <t>ニュージャージーでは,この水果は,水果の種類を特定する.台湾の古い街の街は,古典的なレストランやレストランが1世紀前に建てられた場所です.台湾の風景を味わうために,様々な飲み物やお菓子を用意しています.詳細は,この記事の内容と品質は,現場状況によって決定されるため,参考にのみ提供されていることをご注意ください.商品の購入は,商品の購入を控えるため,商品の購入は,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を控えるため,商品の購入を</t>
+  </si>
+  <si>
+    <t>すみません このあたりで数量限定な電灯・カシはどこで買えますか?</t>
+  </si>
+  <si>
+    <t>電気代を制限する情報については,ごめんなさい.台南市内の電気通信局は,台南市内の電気通信局に電話して,支援を要請する.</t>
+  </si>
+  <si>
+    <t>私は高校客で歴史のあるおいみせのお茶屋さんを探しています。どこに行くといいでしょうか?</t>
+  </si>
+  <si>
+    <t>茶屋は伝統的な茶屋ではないが,歴史と知名度が確立されているため,約700メートル離れた場所にある"3皇家3中国東店"を訪れるかもしれない.店舗情報が有限であるため,直接相談を依頼するのがお勧めです. 店内での販売は,お店の詳細に限られているため,お店の詳細は,お店の詳細に限られているので,お店の詳細は,お店の詳細に記載されています.詳細はこちらから茶屋や類似の場所を探しているなら, "3皇家3中華東店"は良い選択かもしれません.台湾の老人が旅する地域には"茶屋"という明確な定義がないことを思い出してください.しかし,ホテルに入ると,近くの歴史のある店や観光地を探索することができます.</t>
+  </si>
+  <si>
+    <t>タイナンには老い店のお茶屋のような伝統的なお茶文化を提言できる場所はありますか?</t>
+  </si>
+  <si>
+    <t>台湾では伝統的な茶文化が注目される場所は"イリーのお店,キン中街店"です.茶の伝統を体験したり,学ぶことを望むなら,この店は良い選択かもしれません.茶の伝統文化に携わる経験者は,事前に予約したり,店員が提供するサービスを尋ねたりすることが必要である.</t>
+  </si>
+  <si>
+    <t>すみません タイナンで他に見学できる おいみせのお茶屋を おすすめしていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人 AI旅です. あなたの背景から,最近唯一の店を紹介します.店内は730メートルほど離れたところにあり,営業時間は10時から21時までの間です.海外の情報と国内での情報についてはコメントをご覧ください.ウェブサイトの詳細は,このサイトで公開されている.詳細は,お問い合わせください.</t>
+  </si>
+  <si>
+    <t>台南で電動建築を入港して地元の屋台料理が味わえるおすすめのスポットはありますか?</t>
+  </si>
+  <si>
+    <t>台湾では約1.6km離れた Yonlin Restaurant (ヨンリンレストラン) が推奨されています.台湾料理の正統な料理を提供し,営業時間11:00~22:00です.国内および国外の送料は利用可能です.店内では,お店の情報不足が原因で,お店のカウンターに相談してください.</t>
+  </si>
+  <si>
+    <t>有名なエビご飯を食べてみたいのですか? 台南では他にどこで煮たような料理が食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾では,松食品,市立食堂の正統な台湾料理,台湾の魚店以外にも,美味しい料理が多くあります.台湾の有名な"小食"を味わいたいなら,大東市,大東市,ガーデン市,武蔵野市などにご訪問ください.台湾の夜店では,タイナンの料理が販売されています.台湾の南市街やオースティン・ドリーム・パークは,近隣の南市街です.台湾の料理や観光スポットがもっとたくさんあるので,ぜひこの場所を探索してください!</t>
+  </si>
+  <si>
+    <t>タイナンで伝統的な肉巻きを食べてみたいのですが 他に人気のお店をお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>ショッピングセンターは,スーパーだけでなく,多くの小食や観光スポットも提供しています.店内では,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランが,レストランのレストランで,レストランのレストランで,レストランのレストランが,レストランの店内では,レストランの店内では,レストランの店内では,レストランの店内では,レストランの店内では,レストランの</t>
+  </si>
+  <si>
+    <t>旅行中、喉の渇きを癒すような地元の名物ドリンクを探しています。おすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅行 AIは,地元の有名な飲料を探していることに気づいて,あなたのニーズを満たすような"億円牛肉スープの"や伝統的な市場を試してみることをお勧めします.飲酒の種類は,特に飲酒の種類が推奨されていないが,その場所から探検を始め,他の面白い場所を見つけることができる.山市は,南市で,スーパーで,必要な物品を購入できる.地域情報や地図を参考にしたり,地域住民に相談したり,自分の居場所が最適であることを確認するために,地元のレストランや観光スポットがたくさんあります.</t>
+  </si>
+  <si>
+    <t>新鮮な海鮮が売りのレストランでおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の近隣の店を直接推薦できないのですが,ご紹介した情報に基づいて,最近の"毛料理専門店"をご覧いただけます.空港は約1.9km離れたところにあり,営業時間は11:30~21:00です.国内および海外のサービスが4.6点です.田市で,お店で,鮮やかな海鮮料理を味わうよう勧めます.店内では,情報不足しているので,直接相談してください.近くにある店:毛 料理店地址:台湾台湾東営業時間:11:30~21:00評価: 4.6内部: True海外: True価格:PRICE_LEVEL_EXPENSIVE 価格:PRICE_LEVEL_EXPENSIVE</t>
+  </si>
+  <si>
+    <t>旅行で来たのですか?健康に良いドライフルーツはどこで買えますか?</t>
+  </si>
+  <si>
+    <t>ありがとうございました!台湾の老人旅行のスマートホスピタとして AIが支援をしてくれます商品の購入や需要について質問をする場合は,カウンターや"甘情商標"でご相談ください.旅行や特定の商品に関する質問は,現在回答できませんが,他のホテルサービスや施設に関する質問があれば,喜んでお手伝いします.</t>
+  </si>
+  <si>
+    <t>そちらの地域にはバクター糖を主成分とする特製品はどのようなものがありますか?</t>
+  </si>
+  <si>
+    <t>店内には南ショッピングセンターがあり,様々な商品が提供されています.南市ショッピングセンターに問い合わせるよう提案します.バルコテール糖が含有する特別な製品があるかどうかについては,現在回答できないので,カウンタースタッフに問い合わせることをお勧めします.</t>
+  </si>
+  <si>
+    <t>脂こっくないバリバリの小食はどこで食べられますか?</t>
+  </si>
+  <si>
+    <t>店内でのおすすめは,最近の店内でのおすすめは,許さないと,もっと明確な場所や条件が必要だから,おすすめはできない.台湾の旅の近郊には,いくつかの良い店がある.台湾の老人旅行を始めるなら,3.03km離れた場所にある"アメリカンホテル"は,台湾市中央西区民権路第98号にある.国内サービスが提供されていることによって,店内では,レストランが人気のある店を探している場合,美式レストランは良い選択かもしれません.</t>
+  </si>
+  <si>
+    <t>タイナンに来たのですか? 持ち帰りにおすすめのお土産や地元の特選 フルーツはありますか?</t>
+  </si>
+  <si>
+    <t>店内では,お店の販売は,お店の販売で,お店の販売が,お店の販売で,お店台湾のタイナン地区で,最近の店から"お金が来る,雑貨が来る"を選択します.台湾市北門区旧187号にある.営業時間については,特定の日と時間に対して4.0点で293件のコメントを受け付けています.近くにある地域や交通手段があるので,この"お金が来る,また雑貨が来る"を唯一推奨する店として選ぶことをお勧めします.</t>
+  </si>
+  <si>
+    <t>ここ以外にヘルシーなエビゼンベンを買える場所はありますか?</t>
+  </si>
+  <si>
+    <t>この近くで手作りの空気やお土産が買えるところは他にありますか?</t>
+  </si>
+  <si>
+    <t>南市街の近郊にあるスーパーには,地元の風や贈り物や小食が多くあり,詳細については先行でカウンターに問い合わせてください.</t>
+  </si>
+  <si>
+    <t>食感のいい文字や台服はどこで手に入りますか?</t>
+  </si>
+  <si>
+    <t>タイナンに遊びに行くのですか? 柔らかでどろけるような トーカーの美味しいお店をおすすめしていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾では南ショッピングセンターを訪れると思われる.旅の子どもの科学館やリンマー・ガールズ公園は,親にとって最適な場所です.交通費は20万円で,交通費は20万円空港の駅は,ホテルに移動して,ホテルに移動する際に,</t>
+  </si>
+  <si>
+    <t>旅の途中で食感が特別なミガオを食べたいのですか? どのお店をおすすめしますか?</t>
+  </si>
+  <si>
+    <t>旅行中に特別なミコを味わいたいなら"上海に美味しい缶詰スープ"に行ってみよう!店は私の所から約700メートル離れたところにあり,日曜から土曜の10:30〜22:00まで営業しています.伝統的な米高ではないが,カビソップは地元の有名な料理で,特別な味を味わうことができます.評価は4.0点,評価は8519点,環境も良好です.シェイクハイの味は"小箱スープ"です. シェイクハイの味は"小箱スープ"です.</t>
+  </si>
+  <si>
+    <t>どこで水を抱えずに作ることで食感がよく濃厚なデザートがあるレストランを見つけられますか?</t>
+  </si>
+  <si>
+    <t>飲食店は,水分のない環境で,美味しいデザートを提供できないので,申し訳ありません.投稿者: 投稿者</t>
+  </si>
+  <si>
+    <t>セットメニューを提供しているフックス光景の飲食店でどこかおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>田市では,約200メートル離れた所にある"億人の牛肉スープの店"が営業時間で休業日です.食事のご利用は不明ですが,ご利用は考慮してください.店内では,店内は店内で,詳細は制限のため提供できませんでした.投稿者: 投稿者詳細はこちらから南市は,南市内のショッピングセンターで,近隣のレストランや観光スポットが多くある.店内での活動ガイドや招待状の制作については,先ず関係者や店主から相談をすることが必要です.</t>
+  </si>
+  <si>
+    <t>私は高校客です 安くて美味しい肉そばローご飯や肉そばローメンが食べられる場所はどこですか?</t>
+  </si>
+  <si>
+    <t>山市では,約207メートル離れた"億人の牛肉スープの後甲店" (南) を考慮して,営業時間が少ないが,4.0点高い評価を得ています.海外の反応は,海外の反応ではなく,国内での反応です.活動している人は試してください!</t>
+  </si>
+  <si>
+    <t>伝統的な手法で作られた帽子を作っているお店を探しています。おすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>台湾のオールド・旅の店のカウンターで親のレストランや観光スポットを尋ねると,南市内や周辺の伝統的な帽子屋さんを見つけることができます.山市は,南市街まで歩いて行くことが推奨されています.</t>
+  </si>
+  <si>
+    <t>コーヒー農園のエリアで景色をなめながらコーヒーを飲み、おいしい料理を楽しめるおすすめの場所はありますか?</t>
+  </si>
+  <si>
+    <t>店内では,お店の詳細は,お店の詳細をご覧ください.営業時間や距離などにかかわらず,以下のようなアドバイスをします.氏農場は,約14.3km離れたところにある"氏農場"です.農場は伝統的なコーヒー農場ではないが,農場を楽しみたいなら,また,興味のある方は,その店主が熱心で,物語を分かち合いたいと思います.店内では,日曜から月曜の9時から6時まで営業し,火曜から木曜の同時営業時間も同じです.評価は4.8%,評論は171件でした.国内および海外の情報については,現場またはウェブサイトの広告を参照してください.広島市にある大村景観レストランは,約29.84km離れた村で,日曜から土曜の朝11時から夜8時まで営業しており,評価は4.2点,評価は238点です.国内での利用は可能ですが,外送はできません.価格は中等です.コーヒー農場を旅したいなら 42.58km離れた園のコーヒーが良い選択です.営業時間:日~月曜日午前9時から午後6時まで,火~木曜日休業です.評価は4.3分で295件のコメントが寄せられました.国内での利用は可能ですが,外送はできません.店内での営業時間と関連情報をチェックする際には,ご利用ください.</t>
+  </si>
+  <si>
+    <t>台南を旅行中ですが、産業料理を主に扱う小食店のおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>牛肉の湯の店 (南) から200メートルほど離れたところにある"南牛肉の湯の店"は,その本来の良い選択ですが,より近い店や異なる店を探したい場合は,Yui Farm路574号にある"南牛肉の湯の店"を考慮してください.店内では,お店の詳細は確認できないので,店内店の詳細は確認してください.</t>
+  </si>
+  <si>
+    <t>タイナンは初めてなのですか? 安くておいしいヤッタや地元の小食がおすすめのお店を教えていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅の近くには,美味しい,安価な料理が多くあり,南ショッピングセンターのに行くことをお勧めします.</t>
+  </si>
+  <si>
+    <t>すみません このあたりでドクトの味のイーミンとルーウェイが食べられる店はありますか?</t>
+  </si>
+  <si>
+    <t>背景情報によると,あなたの場所から約1.4km離れたところにある"角角レストラン" Corner Steak Houseが最近にある.デザート店の店長については,もっと詳しく説明しておきたいと思います.詳細な場所や条件を提供できれば,私は最高のデザート店を見つけるのに最善を尽くします.コーナー・ステーキハウス (Corn Steak House) の営業時間やメニューをチェックしてみてください.</t>
+  </si>
+  <si>
+    <t>カイナンに初めて来たのですか?エビご飯を専門にしていて平板の良いお店はどこですか?</t>
+  </si>
+  <si>
+    <t>他に試してみる価値のある海鮮の小食が食べられる場所はありますか?</t>
+  </si>
+  <si>
+    <t>近くにある毛店以外にも,この"長寿屋-高酸塩白菜火鍋"を考慮してください.台湾の海鮮は,台湾の海鮮に食べたいと願うなら,都市部や他の地域へ行って調べる必要があるかもしれません.オンラインレビューや地元住民の質問で,最新鮮やかな美味しい海鮮料理を入手してください.補完食店は,約1.9km離れた食店が挙げられ,より近い選択肢を求めた場合,食店 - 高酸塩白菜火鍋は,最近の店の一つですが,伝統的な海鮮食品ではなく火鍋の店として販売されています.都市部や他の地域では,最高の海鮮料理を探して行くことを考えることができます.#店内では,お店の情報も,南京ショッピングセンターで入手できます.台湾料理を探す旅行者にとって,これは有用な参考になるかもしれません.</t>
+  </si>
+  <si>
+    <t>タイナンへ旅行するのですか? 美味しいシャオロンボーや ジョウカクフの炒め物が食べられるおすすめの場所はどっか?</t>
+  </si>
+  <si>
+    <t>台湾老人旅の近くには美味しいサラダやケーキが多くあり,最も推奨されているのは"明新食品・東寧2店"です.店内では,お店がよく見られるので,お店のご案内もご検討ください.(情報がない場合,ただ"近所の店員の情報は不足しているので,カウンターから助けを請うことをお勧めします".)</t>
+  </si>
+  <si>
+    <t>新鮮な自家製料理が食べられて ビフェもあるおすすめのレストランはありますか?</t>
+  </si>
+  <si>
+    <t>近くにあるBFFのスープの店 (南) は良い選択です!台湾市東区 裕農路574号線で207メートル離れた場所です.営業時間については,特定の日休みですが,旅行の評価は 4.0 と11029 の評価で判断できます.部屋の内側:はい.海外派遣サービス:はい価格は中級です.牛肉のスープを味わいたいなら,この店はいい所です.</t>
+  </si>
+  <si>
+    <t>すみません タイナンで特別な雰囲気があって 心地いいカフェをお勧めしていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅の近くにある"羊城小食堂"は,約3.6km離れた場所にある唯一の近隣の店です.営業時間は10:00~21:00です. 評価は4.1点です.また,約3.60km離れたところには"有"の野菜汁の店があり,営業時間は長く,価格が高くて,内部のサービスが提供されていない.コーポレイトカフェは,環境と質の高いカフェを探している場合,非常に良い選択です.補完川市内には,ショッピングセンターがあり,近隣のレストランや観光スポットがたくさんあります.喫煙者への影響は,喫煙者への影響が大きくなり,喫煙者への影響は,</t>
+  </si>
+  <si>
+    <t>お店の中なのですが、ゆっくり靴とけて、独色あるドリンクが楽しめるカフェを探しています。おすすめはありますか?</t>
+  </si>
+  <si>
+    <t>店内で靴を探している間,特別な飲み物を味わうカフェを探しているなら,私は"狭門カフェ"をお勧めします.台南市中央区南門路67号2階2.92kmに位置し,日曜11:00-20:00;月曜11:30-19:00など営業しています.狭門カフェは 4.5つ星の評価と快適な環境で有名で,店内でのゆっくりと飲み物を楽しむのに適しています.</t>
+  </si>
+  <si>
+    <t>スナゴ旅行中なのですか?スナゴ旅行中なのですか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅行の櫃員に直接相談してください. 旅行の必要性がある場合は,ご相談ください.</t>
+  </si>
+  <si>
+    <t>南区で座って様々なドリンクや料理をゆっくり楽しめるカフェのおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>ランコ植物園から2.8kmほど離れた場所にある"ラオ国カフェ"は,台湾台湾市中西区中山路7960号にある.ローラオカミのコーヒーが,国内で提供され,価格が安い.ラオアトアでは,ラコの植物園の近くでカフェを探している場合,ラオアトアトアでは良い選択です.</t>
+  </si>
+  <si>
+    <t>台湾でダンズメンのような伝統的なスナックを食べたい場合、どこに行けばいいですか?</t>
+  </si>
+  <si>
+    <t>台湾の伝統舞踊に関する零食を味わいたいなら,ブラック橋・ブランドカレンチ博物館の近くにある店に行ってみよう.台湾の地域に興味がある人は,南ショッピングセンターや周辺のスーパーや小食や観光スポットを考慮してください.ダンスの伝統を味わうために,もっと詳しく調べたり,地元住民に尋ねたりすることが必要です.詳細については,先ほどカウンターや地元のスタッフの協力を確認することが推奨されています.詳細はこちらからダンサーの伝統的なスナックがどのダンサーに関連しているかは明らかにされていないので,特定のダンサーやスナックに問い合わせがあれば,私に知らせてください.</t>
+  </si>
+  <si>
+    <t>エカワ肉ソーメシ以外にどこで美味しい肉ソーメシが食べられますか?</t>
+  </si>
+  <si>
+    <t>肉のスープのほか,お肉の美味しい味を味わうための"義大利菜のスープ"があります.台南市東区 裕農路616号にある.肉屋は日曜から土曜まで午前8時から20時まで営業し,日曜日は部分営業です.国内サービスが提供されているが,輸出や価格情報は資料には含まれていない.肉を食べたいなら,義大利菜のを考慮してください!</t>
+  </si>
+  <si>
+    <t>タイナンは初めてなのですか? 美味しい魚のフライのお店をいくつかおすすめしていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅行のAIです.近隣の店をいくつか提供できますが,近隣の魚屋を探すために注意してください.台湾市東区中華東路2号131号にある"長春健康食レストランチェーンの中華店"は,主に野菜を供給している.魚を食べたいなら,近700メートル近くにある"3皇家中国東店"は10:00~21:00営業ですが,評価や距離などの情報は,あなたのニーズに完全に適合しないかもしれません.店長から確認する場合は,先日最新情報を確認してください.(注:私は原題の日本語部分を削除し,繁体中語で回答し,ユーザーに直接必要な情報を提供しました.</t>
+  </si>
+  <si>
+    <t>海南でソーセージや冷菜のような伝統的な屋台料理・小食を楽しめるおすすめの場所はありますか?</t>
+  </si>
+  <si>
+    <t>海南島では,レストランの料理や小食を体験したいなら,次の場所を考えてみてください.2 三亚市では,美しい海景のほか,鮮やかな海産品や地元の料理を販売する多くのが広がっています.3 海口市では,海口農産物市場 (海口農産物市場) で,海南産物や新鮮な食品の種類が多く見られます.4 文市の"文夜市"では,様々な海南味の伝統的な料理が販売されている.5 海口市にある"海口海口街"には,様々な鮮やかな海産品や地元の小食を販売する海産品店が多くあります.田市では,水産品の種類や地元の小食材が多く見られる.海口市にある"海口土産街"では,海南土産や地元の料理が様々な種類があります.文市にある"文土産街"では,様々な海南料理が味わわれる.口市では,海口市で,様々な海南味の伝統的な料理が販売されている.田市では,新鮮な海産品と地元の小食を販売する田市が多くある.海南島は地理的に大きく,上記に挙げた場所は地域によって異なる可能性があります.ウェブサイトは,このサイトをクリックして,ウェブサイトの詳細を表示します.(注:海南島各地の場所には,特定の営業時間や制限が可能であるので,空を飛ばさないように事前に確認してください.オンラインで海南島では,この地域の屋敷料理や小食を体験したいなら,次の場所を考えてみてください.伝統的な屋敷料理と小食の集まりの2つの場所です.海外の海南の香りを味わうために,先は海南の香りを味わうようにお勧めします.</t>
+  </si>
+  <si>
+    <t>タイナンに行くのですが、ワンクエのような定番の米料理でおすすめはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の旅行中に南市街から約2.9km,歩いて5〜7分程離れた"イリーズ・ストア・キング・ストア"に移動する.店内での座席と出荷サービスが提供されているが,出荷オプションは少ない.価格は中等です.台湾の南の近くにある美味しい料理を探しているなら,イリの店,キン中街は良い選択です.</t>
+  </si>
+  <si>
+    <t>タイナンに行くのですが 有名なコール料理や人気な飲食店で おすすめがあれば教えていただけますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅の情報によると,約2.9km離れたところにある"狭門カフェ"が,最近唯一の店です.営業時間:日曜日11:00~20:00 月曜日11:30~19:00経験は,とても楽しいです.田市は,南市で,レストランや観光スポットが多く,詳細については,お問い合わせください.</t>
+  </si>
+  <si>
+    <t>タイナンではどこで懐かしい雰囲気のあるワークエを食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾の南市内のスーパーや近隣の小食店やタイタン・ガーデン・ナイトマーケットでは,懐かしい雰囲気が楽しめます.詳細はご紹介するご両親のレストランや観光地についてです.海外の反応は,台湾のオールド・旅・ホテルは南ショッピングセンターの隣にある. チェイ美美術館から8km,タイタン・ガーデン・ナイトマーケットから5km離れた場所です.極簡主義的なデザインの部屋,様々な枕の選択,無料の朝食,駐車場などもありました.ニュージャージー・ジャパン・ジャ施設は体育館,デザインショップ,ギャラリーなどです.部屋の清掃について疑問がある場合は,カウンターに手を差し伸べて,部屋の清掃を強化したり,交換したりしてください.予約の追加で購入する優待は既に提供されています.台湾老人旅行のウェブサイトや特定の協力プラットフォームは,鉄道の優惠券と提携し,予約時に詳細を確認することを推奨しています.作業員から手助けを依頼すれば,手配の続きが確認できます.</t>
+  </si>
+  <si>
+    <t>タイナンに行くのですが、地元ならでは米料理と伝統的なスープを食べたいです。おすすめのお店はありますか?</t>
+  </si>
+  <si>
+    <t>台南では米料理や伝統的な湯の必需品を販売している店を推薦できないので,ごめんなさい.</t>
+  </si>
+  <si>
+    <t>どこでおいしいルーメンや伝統的なミンカオが食べられますか?</t>
+  </si>
+  <si>
+    <t>牛肉スープの後に207メートル離れた南の甲店の近くには,美味しい肉食と伝統的な米腸がたくさんあります.肉は,肉の濃い濃度で,肉の濃い濃度が,肉の濃い濃度が,肉の濃い濃度が,近くにあるレストランやレストランを考慮してください. 店内や周辺のレストランやレストランは,田 田肉や米腸を食べたいなら,直接100億円の牛肉スープの店に行くといい.田市で販売されている肉の種類は,田市で販売されている肉の種類です.田 田近くにあるレストランやレストランを考慮してください. 店内や周辺のレストランやレストランなどです.牛肉のスープを直接購入して,その解決方法を見つけることができます.</t>
+  </si>
+  <si>
+    <t>私は観光客ですが、近くて美味しくて健康的な焼肉道をお勧めできるお店はありますか?</t>
+  </si>
+  <si>
+    <t>山市街の近くにある"健康焼肉"レストランは,美味しい健康焼肉の選択肢を提供しています.</t>
+  </si>
+  <si>
+    <t>タイナンにミシュランの推薦店はありますか? 特におコワを売っているお店はありますか?</t>
+  </si>
+  <si>
+    <t>メディアは,Tenanでは,ミシャラン認証を受けた店員の直接言及がないと報告しています.台湾市中西部のパンパン屋が高い価格で売れるので,私はパンパン屋を用意できます.営業時間:日曜日と月曜日 16:30~22:00 評価は4.3分です.ティナンでは,ミシャラン認定店ではありませんが,美味しいパンパンパンを探している場合は,小さな公園パンパンパンについて考えてください.(情報がない場合,ただ"近所の店員の情報は不足しているので,カウンターから助けを請うことをお勧めします".)</t>
+  </si>
+  <si>
+    <t>タイナンに旅行できているのですか?地元で人気なミルクフィッシュ料理はどこで食べられますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人の旅のAIアシスタントです.ロー・メイ・陶坊は,最近,唯一推薦されている店ですが,自分で行くことはできません.台湾市新橋街276-1号にあるこの施設は,約33.8km離れた場所にある.営業時間:日曜・金曜の11時から20時まで国内サービスで4.6点評価されています.泰 (タイ料理) というので,私はより近い場所から,タイ料理を味わう"Kaluwa Thai Music Restaurant"をお勧めします.ナイフ・タイのレストランは,約5.2km離れた場所です. 日曜と土曜の営業時間は11時から21時までです.海外の反応は,</t>
+  </si>
+  <si>
+    <t>どこの肉園が特に徒長的で、ぜひ食べていく価値がありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人がAIを旅してきて,肉を食べたくないように見えるのを発見しましたが,最近でも試しにできる店をお勧めします.食品のご利用や距離の要求が明確になっていないので,先ほどご質問の背景に基づいて,一番近い店を選びます.田市では,この店は"南"という名前の1つで,あなたの居場所から非常に近い.営業時間については,特定の日休みですが,あまり重要なことのない詳細を少しだけ述べます.菜の店と明新食品2店は207メートル離れたところでも,おすすめですが,お問い合わせに応じて,一番近い店を選びます.台湾の東東部の574号裕農路701号の南にある"億円牛肉スープの店"です.</t>
   </si>
 </sst>
 </file>
@@ -1068,13 +1656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="142.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.85546875" customWidth="1"/>
     <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
@@ -1098,6 +1686,12 @@
       <c r="A2" t="s">
         <v>104</v>
       </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,6 +1700,12 @@
       <c r="A3" t="s">
         <v>105</v>
       </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1114,6 +1714,12 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,6 +1728,12 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1130,6 +1742,12 @@
       <c r="A6" t="s">
         <v>108</v>
       </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,6 +1756,12 @@
       <c r="A7" t="s">
         <v>109</v>
       </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,6 +1770,12 @@
       <c r="A8" t="s">
         <v>110</v>
       </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,6 +1784,12 @@
       <c r="A9" t="s">
         <v>111</v>
       </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,6 +1798,12 @@
       <c r="A10" t="s">
         <v>112</v>
       </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,6 +1812,12 @@
       <c r="A11" t="s">
         <v>113</v>
       </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,6 +1826,12 @@
       <c r="A12" t="s">
         <v>114</v>
       </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1186,6 +1840,12 @@
       <c r="A13" t="s">
         <v>115</v>
       </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,6 +1854,12 @@
       <c r="A14" t="s">
         <v>116</v>
       </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,6 +1868,12 @@
       <c r="A15" t="s">
         <v>117</v>
       </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,6 +1882,12 @@
       <c r="A16" t="s">
         <v>118</v>
       </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1218,6 +1896,12 @@
       <c r="A17" t="s">
         <v>119</v>
       </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,6 +1910,12 @@
       <c r="A18" t="s">
         <v>120</v>
       </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,6 +1924,12 @@
       <c r="A19" t="s">
         <v>121</v>
       </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1242,6 +1938,12 @@
       <c r="A20" t="s">
         <v>122</v>
       </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1250,6 +1952,12 @@
       <c r="A21" t="s">
         <v>123</v>
       </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,6 +1966,12 @@
       <c r="A22" t="s">
         <v>124</v>
       </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1266,6 +1980,12 @@
       <c r="A23" t="s">
         <v>125</v>
       </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1274,6 +1994,12 @@
       <c r="A24" t="s">
         <v>126</v>
       </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1282,6 +2008,12 @@
       <c r="A25" t="s">
         <v>127</v>
       </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1290,6 +2022,12 @@
       <c r="A26" t="s">
         <v>128</v>
       </c>
+      <c r="B26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,6 +2036,12 @@
       <c r="A27" t="s">
         <v>129</v>
       </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
@@ -1306,6 +2050,12 @@
       <c r="A28" t="s">
         <v>130</v>
       </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
@@ -1314,6 +2064,12 @@
       <c r="A29" t="s">
         <v>131</v>
       </c>
+      <c r="B29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
@@ -1322,6 +2078,12 @@
       <c r="A30" t="s">
         <v>132</v>
       </c>
+      <c r="B30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
@@ -1330,6 +2092,12 @@
       <c r="A31" t="s">
         <v>133</v>
       </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1338,6 +2106,12 @@
       <c r="A32" t="s">
         <v>134</v>
       </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
@@ -1346,6 +2120,12 @@
       <c r="A33" t="s">
         <v>135</v>
       </c>
+      <c r="B33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
@@ -1354,6 +2134,12 @@
       <c r="A34" t="s">
         <v>136</v>
       </c>
+      <c r="B34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
@@ -1362,6 +2148,12 @@
       <c r="A35" t="s">
         <v>137</v>
       </c>
+      <c r="B35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" t="s">
+        <v>271</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
@@ -1370,6 +2162,12 @@
       <c r="A36" t="s">
         <v>138</v>
       </c>
+      <c r="B36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" t="s">
+        <v>273</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
@@ -1378,6 +2176,12 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
@@ -1386,6 +2190,12 @@
       <c r="A38" t="s">
         <v>140</v>
       </c>
+      <c r="B38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
@@ -1394,6 +2204,12 @@
       <c r="A39" t="s">
         <v>141</v>
       </c>
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
       </c>
@@ -1402,6 +2218,12 @@
       <c r="A40" t="s">
         <v>142</v>
       </c>
+      <c r="B40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" t="s">
+        <v>273</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
       </c>
@@ -1410,6 +2232,12 @@
       <c r="A41" t="s">
         <v>143</v>
       </c>
+      <c r="B41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" t="s">
+        <v>282</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
       </c>
@@ -1418,6 +2246,12 @@
       <c r="A42" t="s">
         <v>144</v>
       </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
@@ -1426,6 +2260,12 @@
       <c r="A43" t="s">
         <v>145</v>
       </c>
+      <c r="B43" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" t="s">
+        <v>286</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
@@ -1434,6 +2274,12 @@
       <c r="A44" t="s">
         <v>146</v>
       </c>
+      <c r="B44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" t="s">
+        <v>288</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1442,6 +2288,12 @@
       <c r="A45" t="s">
         <v>147</v>
       </c>
+      <c r="B45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" t="s">
+        <v>290</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
       </c>
@@ -1450,6 +2302,12 @@
       <c r="A46" t="s">
         <v>148</v>
       </c>
+      <c r="B46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1458,6 +2316,12 @@
       <c r="A47" t="s">
         <v>149</v>
       </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>294</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
       </c>
@@ -1466,6 +2330,12 @@
       <c r="A48" t="s">
         <v>150</v>
       </c>
+      <c r="B48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" t="s">
+        <v>296</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
       </c>
@@ -1474,6 +2344,12 @@
       <c r="A49" t="s">
         <v>151</v>
       </c>
+      <c r="B49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
       </c>
@@ -1482,6 +2358,12 @@
       <c r="A50" t="s">
         <v>152</v>
       </c>
+      <c r="B50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" t="s">
+        <v>300</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
       </c>
@@ -1490,6 +2372,12 @@
       <c r="A51" t="s">
         <v>153</v>
       </c>
+      <c r="B51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
       </c>
@@ -1498,6 +2386,12 @@
       <c r="A52" t="s">
         <v>154</v>
       </c>
+      <c r="B52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" t="s">
+        <v>304</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
@@ -1506,6 +2400,12 @@
       <c r="A53" t="s">
         <v>155</v>
       </c>
+      <c r="B53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" t="s">
+        <v>306</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
@@ -1514,6 +2414,12 @@
       <c r="A54" t="s">
         <v>156</v>
       </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
@@ -1522,6 +2428,12 @@
       <c r="A55" t="s">
         <v>157</v>
       </c>
+      <c r="B55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" t="s">
+        <v>310</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
       </c>
@@ -1530,6 +2442,12 @@
       <c r="A56" t="s">
         <v>158</v>
       </c>
+      <c r="B56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" t="s">
+        <v>312</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
       </c>
@@ -1538,6 +2456,12 @@
       <c r="A57" t="s">
         <v>159</v>
       </c>
+      <c r="B57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" t="s">
+        <v>314</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
@@ -1546,6 +2470,12 @@
       <c r="A58" t="s">
         <v>160</v>
       </c>
+      <c r="B58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" t="s">
+        <v>316</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
@@ -1554,6 +2484,12 @@
       <c r="A59" t="s">
         <v>161</v>
       </c>
+      <c r="B59" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" t="s">
+        <v>318</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1562,6 +2498,12 @@
       <c r="A60" t="s">
         <v>162</v>
       </c>
+      <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
       </c>
@@ -1570,6 +2512,12 @@
       <c r="A61" t="s">
         <v>163</v>
       </c>
+      <c r="B61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" t="s">
+        <v>322</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
@@ -1578,6 +2526,12 @@
       <c r="A62" t="s">
         <v>164</v>
       </c>
+      <c r="B62" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" t="s">
+        <v>324</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
@@ -1586,6 +2540,12 @@
       <c r="A63" t="s">
         <v>165</v>
       </c>
+      <c r="B63" t="s">
+        <v>325</v>
+      </c>
+      <c r="C63" t="s">
+        <v>326</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
@@ -1594,6 +2554,12 @@
       <c r="A64" t="s">
         <v>166</v>
       </c>
+      <c r="B64" t="s">
+        <v>327</v>
+      </c>
+      <c r="C64" t="s">
+        <v>328</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
       </c>
@@ -1602,6 +2568,12 @@
       <c r="A65" t="s">
         <v>167</v>
       </c>
+      <c r="B65" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" t="s">
+        <v>330</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1610,6 +2582,12 @@
       <c r="A66" t="s">
         <v>168</v>
       </c>
+      <c r="B66" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" t="s">
+        <v>332</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
@@ -1618,6 +2596,12 @@
       <c r="A67" t="s">
         <v>169</v>
       </c>
+      <c r="B67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" t="s">
+        <v>334</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
       </c>
@@ -1626,6 +2610,12 @@
       <c r="A68" t="s">
         <v>170</v>
       </c>
+      <c r="B68" t="s">
+        <v>335</v>
+      </c>
+      <c r="C68" t="s">
+        <v>273</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
@@ -1634,6 +2624,12 @@
       <c r="A69" t="s">
         <v>171</v>
       </c>
+      <c r="B69" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" t="s">
+        <v>337</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
       </c>
@@ -1642,6 +2638,12 @@
       <c r="A70" t="s">
         <v>172</v>
       </c>
+      <c r="B70" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" t="s">
+        <v>273</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
       </c>
@@ -1650,6 +2652,12 @@
       <c r="A71" t="s">
         <v>173</v>
       </c>
+      <c r="B71" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71" t="s">
+        <v>340</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
       </c>
@@ -1658,6 +2666,12 @@
       <c r="A72" t="s">
         <v>174</v>
       </c>
+      <c r="B72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" t="s">
+        <v>342</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
@@ -1666,6 +2680,12 @@
       <c r="A73" t="s">
         <v>175</v>
       </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
       </c>
@@ -1674,6 +2694,12 @@
       <c r="A74" t="s">
         <v>176</v>
       </c>
+      <c r="B74" t="s">
+        <v>345</v>
+      </c>
+      <c r="C74" t="s">
+        <v>346</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
       </c>
@@ -1682,6 +2708,12 @@
       <c r="A75" t="s">
         <v>177</v>
       </c>
+      <c r="B75" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" t="s">
+        <v>348</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
       </c>
@@ -1690,6 +2722,12 @@
       <c r="A76" t="s">
         <v>178</v>
       </c>
+      <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>350</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
       </c>
@@ -1698,6 +2736,12 @@
       <c r="A77" t="s">
         <v>179</v>
       </c>
+      <c r="B77" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" t="s">
+        <v>352</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
       </c>
@@ -1706,6 +2750,12 @@
       <c r="A78" t="s">
         <v>180</v>
       </c>
+      <c r="B78" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" t="s">
+        <v>354</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
       </c>
@@ -1714,6 +2764,12 @@
       <c r="A79" t="s">
         <v>181</v>
       </c>
+      <c r="B79" t="s">
+        <v>355</v>
+      </c>
+      <c r="C79" t="s">
+        <v>356</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
       </c>
@@ -1722,6 +2778,12 @@
       <c r="A80" t="s">
         <v>182</v>
       </c>
+      <c r="B80" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" t="s">
+        <v>358</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
       </c>
@@ -1730,6 +2792,12 @@
       <c r="A81" t="s">
         <v>183</v>
       </c>
+      <c r="B81" t="s">
+        <v>359</v>
+      </c>
+      <c r="C81" t="s">
+        <v>273</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
       </c>
@@ -1738,6 +2806,12 @@
       <c r="A82" t="s">
         <v>184</v>
       </c>
+      <c r="B82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" t="s">
+        <v>361</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
       </c>
@@ -1746,6 +2820,12 @@
       <c r="A83" t="s">
         <v>185</v>
       </c>
+      <c r="B83" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" t="s">
+        <v>363</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
       </c>
@@ -1754,6 +2834,12 @@
       <c r="A84" t="s">
         <v>186</v>
       </c>
+      <c r="B84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" t="s">
+        <v>365</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
       </c>
@@ -1762,6 +2848,12 @@
       <c r="A85" t="s">
         <v>187</v>
       </c>
+      <c r="B85" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" t="s">
+        <v>367</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
       </c>
@@ -1770,6 +2862,12 @@
       <c r="A86" t="s">
         <v>188</v>
       </c>
+      <c r="B86" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" t="s">
+        <v>369</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
       </c>
@@ -1778,6 +2876,12 @@
       <c r="A87" t="s">
         <v>189</v>
       </c>
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" t="s">
+        <v>371</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
@@ -1786,6 +2890,12 @@
       <c r="A88" t="s">
         <v>190</v>
       </c>
+      <c r="B88" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" t="s">
+        <v>373</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,6 +2904,12 @@
       <c r="A89" t="s">
         <v>191</v>
       </c>
+      <c r="B89" t="s">
+        <v>374</v>
+      </c>
+      <c r="C89" t="s">
+        <v>375</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
       </c>
@@ -1802,6 +2918,12 @@
       <c r="A90" t="s">
         <v>192</v>
       </c>
+      <c r="B90" t="s">
+        <v>376</v>
+      </c>
+      <c r="C90" t="s">
+        <v>377</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
       </c>
@@ -1810,6 +2932,12 @@
       <c r="A91" t="s">
         <v>193</v>
       </c>
+      <c r="B91" t="s">
+        <v>378</v>
+      </c>
+      <c r="C91" t="s">
+        <v>379</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
       </c>
@@ -1818,6 +2946,12 @@
       <c r="A92" t="s">
         <v>194</v>
       </c>
+      <c r="B92" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" t="s">
+        <v>381</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
       </c>
@@ -1826,6 +2960,12 @@
       <c r="A93" t="s">
         <v>195</v>
       </c>
+      <c r="B93" t="s">
+        <v>382</v>
+      </c>
+      <c r="C93" t="s">
+        <v>383</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
       </c>
@@ -1834,6 +2974,12 @@
       <c r="A94" t="s">
         <v>196</v>
       </c>
+      <c r="B94" t="s">
+        <v>384</v>
+      </c>
+      <c r="C94" t="s">
+        <v>385</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
       </c>
@@ -1842,6 +2988,12 @@
       <c r="A95" t="s">
         <v>197</v>
       </c>
+      <c r="B95" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" t="s">
+        <v>387</v>
+      </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
@@ -1850,6 +3002,12 @@
       <c r="A96" t="s">
         <v>198</v>
       </c>
+      <c r="B96" t="s">
+        <v>388</v>
+      </c>
+      <c r="C96" t="s">
+        <v>389</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
       </c>
@@ -1858,6 +3016,12 @@
       <c r="A97" t="s">
         <v>199</v>
       </c>
+      <c r="B97" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" t="s">
+        <v>391</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
       </c>
@@ -1866,6 +3030,12 @@
       <c r="A98" t="s">
         <v>200</v>
       </c>
+      <c r="B98" t="s">
+        <v>392</v>
+      </c>
+      <c r="C98" t="s">
+        <v>393</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
       </c>
@@ -1874,6 +3044,12 @@
       <c r="A99" t="s">
         <v>201</v>
       </c>
+      <c r="B99" t="s">
+        <v>394</v>
+      </c>
+      <c r="C99" t="s">
+        <v>395</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
       </c>
@@ -1882,6 +3058,12 @@
       <c r="A100" t="s">
         <v>202</v>
       </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>397</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
@@ -1889,6 +3071,12 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" t="s">
+        <v>399</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
